--- a/data/trans_orig/P32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A075DE-589F-4904-851D-938B36DC80E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1F01A0-C69F-49CF-9E64-99081B104AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E68BC892-8D91-4C4C-9DB8-78E5596BE8AD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{68283E02-2C3D-48D6-853A-83FBFFB051D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="370">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,12%</t>
+    <t>6,08%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,1093 +92,1063 @@
     <t>1,04%</t>
   </si>
   <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>99,15%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
     <t>6,42%</t>
   </si>
   <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>96,11%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA7E2D8-258E-4020-9F30-957974728B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56226E-545C-4739-AC66-E3DAF5800426}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2102,7 +2072,7 @@
         <v>788</v>
       </c>
       <c r="N11" s="7">
-        <v>842673</v>
+        <v>842674</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>55</v>
@@ -2153,7 +2123,7 @@
         <v>806</v>
       </c>
       <c r="N12" s="7">
-        <v>861409</v>
+        <v>861410</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -2340,7 +2310,7 @@
         <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2349,13 +2319,13 @@
         <v>9147</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -2367,10 +2337,10 @@
         <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2355,13 @@
         <v>512795</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>285</v>
@@ -2400,13 +2370,13 @@
         <v>294969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>825</v>
@@ -2415,13 +2385,13 @@
         <v>807764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2459,13 @@
         <v>51489</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2504,13 +2474,13 @@
         <v>13239</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -2519,7 +2489,7 @@
         <v>64728</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>95</v>
@@ -2561,7 +2531,7 @@
         <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>2658</v>
@@ -2570,13 +2540,13 @@
         <v>2710758</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,7 +2602,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABEB4AC-BC1C-4464-AC6E-017B95F6997B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A71B770-A545-40E7-807D-EB4BCE4D5AD9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2670,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2777,13 +2747,13 @@
         <v>3828</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2792,13 +2762,13 @@
         <v>1004</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2807,13 +2777,13 @@
         <v>4832</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2798,13 @@
         <v>60828</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -2843,10 +2813,10 @@
         <v>28103</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2858,13 +2828,13 @@
         <v>88930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2902,13 @@
         <v>24078</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2953,7 +2923,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -2962,13 +2932,13 @@
         <v>25964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2953,13 @@
         <v>338533</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
         <v>136</v>
@@ -3001,7 +2971,7 @@
         <v>57</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3013,13 +2983,13 @@
         <v>482954</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3057,13 @@
         <v>29241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3102,13 +3072,13 @@
         <v>5016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -3117,13 +3087,13 @@
         <v>34258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3108,13 @@
         <v>563116</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H11" s="7">
         <v>267</v>
@@ -3153,13 +3123,13 @@
         <v>291444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M11" s="7">
         <v>789</v>
@@ -3168,13 +3138,13 @@
         <v>854560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3212,13 @@
         <v>38274</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3257,13 +3227,13 @@
         <v>3979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3272,13 +3242,13 @@
         <v>42253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3263,13 @@
         <v>422340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -3308,13 +3278,13 @@
         <v>203725</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>565</v>
@@ -3323,13 +3293,13 @@
         <v>626065</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3367,13 @@
         <v>42221</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3412,13 +3382,13 @@
         <v>10820</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -3427,13 +3397,13 @@
         <v>53041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3418,13 @@
         <v>518160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>340</v>
@@ -3463,13 +3433,13 @@
         <v>360411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>843</v>
@@ -3478,13 +3448,13 @@
         <v>878571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3522,13 @@
         <v>137642</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3567,13 +3537,13 @@
         <v>22706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -3582,13 +3552,13 @@
         <v>160348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3573,13 @@
         <v>1902977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>945</v>
@@ -3618,13 +3588,13 @@
         <v>1028102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>2737</v>
@@ -3633,13 +3603,13 @@
         <v>2931080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,7 +3665,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +3686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A47FF-839E-4353-B52B-AEB1CB364D8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B18DF6-7D81-4DAE-A9EC-BC120ED4FAA1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3840,13 +3810,13 @@
         <v>3160</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3855,13 +3825,13 @@
         <v>1778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3870,13 +3840,13 @@
         <v>4937</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3861,13 @@
         <v>82056</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -3906,10 +3876,10 @@
         <v>33584</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3921,13 +3891,13 @@
         <v>115640</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +3965,13 @@
         <v>11216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4010,13 +3980,13 @@
         <v>2777</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4025,13 +3995,13 @@
         <v>13993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4016,13 @@
         <v>333298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>148</v>
@@ -4061,13 +4031,13 @@
         <v>144734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>466</v>
@@ -4076,13 +4046,13 @@
         <v>478033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4120,13 @@
         <v>31947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4165,13 +4135,13 @@
         <v>7643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4180,13 +4150,13 @@
         <v>39590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4171,13 @@
         <v>540476</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
         <v>299</v>
@@ -4216,13 +4186,13 @@
         <v>314620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>801</v>
@@ -4231,13 +4201,13 @@
         <v>855096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4275,13 @@
         <v>20507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4320,13 +4290,13 @@
         <v>5387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4335,13 +4305,13 @@
         <v>25894</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4326,13 @@
         <v>405290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -4371,13 +4341,13 @@
         <v>226813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
@@ -4386,13 +4356,13 @@
         <v>632102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4430,13 @@
         <v>38340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -4475,13 +4445,13 @@
         <v>19716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4490,13 +4460,13 @@
         <v>58056</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4481,13 @@
         <v>533946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>361</v>
@@ -4526,13 +4496,13 @@
         <v>389256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>891</v>
@@ -4541,13 +4511,13 @@
         <v>923202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4585,13 @@
         <v>105170</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4630,13 +4600,13 @@
         <v>37300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -4645,13 +4615,13 @@
         <v>142471</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4636,13 @@
         <v>1895066</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>1059</v>
@@ -4681,13 +4651,13 @@
         <v>1109007</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>2857</v>
@@ -4696,13 +4666,13 @@
         <v>3004073</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,7 +4728,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4779,7 +4749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223F36D3-476C-42C6-B813-E7195C68740E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F1A787-D659-467B-949A-21EC848AF740}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4796,7 +4766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4903,13 +4873,13 @@
         <v>1352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4924,7 +4894,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4933,13 +4903,13 @@
         <v>1352</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,10 +4924,10 @@
         <v>45388</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4972,7 +4942,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4984,10 +4954,10 @@
         <v>72652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>84</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5058,13 +5028,13 @@
         <v>6598</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5073,13 +5043,13 @@
         <v>2719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5088,13 +5058,13 @@
         <v>9317</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5079,13 @@
         <v>282333</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
         <v>203</v>
@@ -5124,13 +5094,13 @@
         <v>138309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
         <v>497</v>
@@ -5139,13 +5109,13 @@
         <v>420642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5183,13 @@
         <v>27894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5228,13 +5198,13 @@
         <v>11022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -5243,13 +5213,13 @@
         <v>38916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5234,13 @@
         <v>459255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
         <v>275</v>
@@ -5279,13 +5249,13 @@
         <v>207544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M11" s="7">
         <v>692</v>
@@ -5294,13 +5264,13 @@
         <v>666799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5338,13 @@
         <v>21463</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5383,13 +5353,13 @@
         <v>9578</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5398,13 +5368,13 @@
         <v>31042</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5389,13 @@
         <v>312773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>238</v>
@@ -5434,13 +5404,13 @@
         <v>287198</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -5449,13 +5419,13 @@
         <v>599970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5493,13 @@
         <v>41463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5538,13 +5508,13 @@
         <v>3912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -5553,13 +5523,13 @@
         <v>45375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5544,13 @@
         <v>419189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -5589,13 +5559,13 @@
         <v>308544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
         <v>853</v>
@@ -5604,13 +5574,13 @@
         <v>727733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5648,13 @@
         <v>98770</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>368</v>
+        <v>188</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -5693,13 +5663,13 @@
         <v>27231</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -5708,13 +5678,13 @@
         <v>126001</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,16 +5696,16 @@
         <v>1487</v>
       </c>
       <c r="D20" s="7">
-        <v>1518938</v>
+        <v>1518937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>374</v>
+        <v>196</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H20" s="7">
         <v>1170</v>
@@ -5744,13 +5714,13 @@
         <v>968860</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>377</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>2657</v>
@@ -5759,13 +5729,13 @@
         <v>2487797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,7 +5747,7 @@
         <v>1587</v>
       </c>
       <c r="D21" s="7">
-        <v>1617708</v>
+        <v>1617707</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -5821,7 +5791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1F01A0-C69F-49CF-9E64-99081B104AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB9C0FF4-A6CE-4B3A-85F3-93AB21A2C446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{68283E02-2C3D-48D6-853A-83FBFFB051D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2442508D-1C1F-43E5-B7B1-5C40E0BABE9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="380">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,08%</t>
+    <t>7,47%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>5,41%</t>
+    <t>4,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,53%</t>
   </si>
   <si>
-    <t>93,92%</t>
+    <t>92,53%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,10 +116,10 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,97%</t>
@@ -128,7 +128,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,66%</t>
   </si>
   <si>
     <t>1,26%</t>
@@ -140,1005 +140,1038 @@
     <t>0,17%</t>
   </si>
   <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
     <t>95,94%</t>
   </si>
   <si>
@@ -1146,9 +1179,6 @@
   </si>
   <si>
     <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56226E-545C-4739-AC66-E3DAF5800426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B56F204-5FB8-458B-A8FB-1739B21F6F3F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2072,7 +2102,7 @@
         <v>788</v>
       </c>
       <c r="N11" s="7">
-        <v>842674</v>
+        <v>842673</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>55</v>
@@ -2123,7 +2153,7 @@
         <v>806</v>
       </c>
       <c r="N12" s="7">
-        <v>861410</v>
+        <v>861409</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -2477,10 +2507,10 @@
         <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -2489,13 +2519,13 @@
         <v>64728</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2540,13 @@
         <v>1829415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>862</v>
@@ -2525,13 +2555,13 @@
         <v>881343</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>2658</v>
@@ -2540,13 +2570,13 @@
         <v>2710758</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2632,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A71B770-A545-40E7-807D-EB4BCE4D5AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AA3E45-D886-4A33-9E71-823E3014C0A3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2747,13 +2777,13 @@
         <v>3828</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2762,13 +2792,13 @@
         <v>1004</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2777,13 +2807,13 @@
         <v>4832</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2828,13 @@
         <v>60828</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -2813,10 +2843,10 @@
         <v>28103</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2828,13 +2858,13 @@
         <v>88930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2932,13 @@
         <v>24078</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2917,13 +2947,13 @@
         <v>1886</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -2932,13 +2962,13 @@
         <v>25964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2983,13 @@
         <v>338533</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>136</v>
@@ -2968,10 +2998,10 @@
         <v>144420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2983,13 +3013,13 @@
         <v>482954</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3087,13 @@
         <v>29241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3072,13 +3102,13 @@
         <v>5016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -3087,13 +3117,13 @@
         <v>34258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3138,13 @@
         <v>563116</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>267</v>
@@ -3123,13 +3153,13 @@
         <v>291444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>789</v>
@@ -3138,13 +3168,13 @@
         <v>854560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3242,13 @@
         <v>38274</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3227,13 +3257,13 @@
         <v>3979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3242,13 +3272,13 @@
         <v>42253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3293,13 @@
         <v>422340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -3278,13 +3308,13 @@
         <v>203725</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>565</v>
@@ -3293,13 +3323,13 @@
         <v>626065</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3397,13 @@
         <v>42221</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3382,13 +3412,13 @@
         <v>10820</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -3397,13 +3427,13 @@
         <v>53041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3448,13 @@
         <v>518160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>340</v>
@@ -3433,13 +3463,13 @@
         <v>360411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>843</v>
@@ -3448,13 +3478,13 @@
         <v>878571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3552,13 @@
         <v>137642</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3537,13 +3567,13 @@
         <v>22706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -3552,13 +3582,13 @@
         <v>160348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3603,13 @@
         <v>1902977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>945</v>
@@ -3588,13 +3618,13 @@
         <v>1028102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>2737</v>
@@ -3603,13 +3633,13 @@
         <v>2931080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,7 +3695,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3686,7 +3716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B18DF6-7D81-4DAE-A9EC-BC120ED4FAA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A4318C-EA49-41B5-A589-8F70C2FD49B3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3703,7 +3733,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3810,13 +3840,13 @@
         <v>3160</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3825,13 +3855,13 @@
         <v>1778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3840,13 +3870,13 @@
         <v>4937</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3891,13 @@
         <v>82056</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -3876,10 +3906,10 @@
         <v>33584</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3891,13 +3921,13 @@
         <v>115640</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3995,13 @@
         <v>11216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3980,13 +4010,13 @@
         <v>2777</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3995,13 +4025,13 @@
         <v>13993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4046,13 @@
         <v>333298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>148</v>
@@ -4031,13 +4061,13 @@
         <v>144734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>466</v>
@@ -4046,13 +4076,13 @@
         <v>478033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4150,13 @@
         <v>31947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4135,13 +4165,13 @@
         <v>7643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4150,13 +4180,13 @@
         <v>39590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4201,13 @@
         <v>540476</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>299</v>
@@ -4186,13 +4216,13 @@
         <v>314620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>801</v>
@@ -4201,13 +4231,13 @@
         <v>855096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4305,13 @@
         <v>20507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4290,13 +4320,13 @@
         <v>5387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4305,13 +4335,13 @@
         <v>25894</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4356,13 @@
         <v>405290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -4341,28 +4371,28 @@
         <v>226813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
       </c>
       <c r="N14" s="7">
-        <v>632102</v>
+        <v>632103</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,7 +4434,7 @@
         <v>606</v>
       </c>
       <c r="N15" s="7">
-        <v>657996</v>
+        <v>657997</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -4430,13 +4460,13 @@
         <v>38340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -4445,13 +4475,13 @@
         <v>19716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4460,13 +4490,13 @@
         <v>58056</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4511,13 @@
         <v>533946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>361</v>
@@ -4496,13 +4526,13 @@
         <v>389256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>891</v>
@@ -4511,13 +4541,13 @@
         <v>923202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4615,13 @@
         <v>105170</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4600,13 +4630,13 @@
         <v>37300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -4615,13 +4645,13 @@
         <v>142471</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4666,13 @@
         <v>1895066</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>1059</v>
@@ -4651,13 +4681,13 @@
         <v>1109007</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>298</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M20" s="7">
         <v>2857</v>
@@ -4666,13 +4696,13 @@
         <v>3004073</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,7 +4758,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F1A787-D659-467B-949A-21EC848AF740}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FFC0DC-64B4-4639-8FED-920086CEC236}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4766,7 +4796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4873,13 +4903,13 @@
         <v>1352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4894,7 +4924,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4903,13 +4933,13 @@
         <v>1352</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,10 +4954,10 @@
         <v>45388</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4942,7 +4972,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4954,10 +4984,10 @@
         <v>72652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5028,13 +5058,13 @@
         <v>6598</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5043,13 +5073,13 @@
         <v>2719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5058,13 +5088,13 @@
         <v>9317</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>64</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5109,13 @@
         <v>282333</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>203</v>
@@ -5094,13 +5124,13 @@
         <v>138309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>497</v>
@@ -5109,13 +5139,13 @@
         <v>420642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5213,13 @@
         <v>27894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5198,13 +5228,13 @@
         <v>11022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -5213,13 +5243,13 @@
         <v>38916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5264,13 @@
         <v>459255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>275</v>
@@ -5249,13 +5279,13 @@
         <v>207544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>692</v>
@@ -5264,13 +5294,13 @@
         <v>666799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5368,13 @@
         <v>21463</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5353,13 +5383,13 @@
         <v>9578</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5368,13 +5398,13 @@
         <v>31042</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5419,13 @@
         <v>312773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>238</v>
@@ -5404,13 +5434,13 @@
         <v>287198</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -5419,13 +5449,13 @@
         <v>599970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5523,13 @@
         <v>41463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5508,10 +5538,10 @@
         <v>3912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>90</v>
@@ -5523,13 +5553,13 @@
         <v>45375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5574,13 @@
         <v>419189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -5559,13 +5589,13 @@
         <v>308544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>853</v>
@@ -5574,13 +5604,13 @@
         <v>727733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5678,13 @@
         <v>98770</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>276</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -5663,13 +5693,13 @@
         <v>27231</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>46</v>
+        <v>370</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -5678,13 +5708,13 @@
         <v>126001</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5729,13 @@
         <v>1518937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>374</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>1170</v>
@@ -5714,13 +5744,13 @@
         <v>968860</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>376</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="M20" s="7">
         <v>2657</v>
@@ -5729,13 +5759,13 @@
         <v>2487797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>369</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,7 +5821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB9C0FF4-A6CE-4B3A-85F3-93AB21A2C446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E9B438C-AD5E-45B3-9C8F-B1CC837ED4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2442508D-1C1F-43E5-B7B1-5C40E0BABE9C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92040AE5-6105-4418-A70A-31C0EEE91AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,47%</t>
+    <t>8,12%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>4,24%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,53%</t>
   </si>
   <si>
-    <t>92,53%</t>
+    <t>91,88%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>95,76%</t>
+    <t>94,86%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -128,7 +128,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>3,06%</t>
   </si>
   <si>
     <t>1,26%</t>
@@ -140,13 +140,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,89%</t>
+    <t>1,99%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>97,34%</t>
+    <t>96,94%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -158,7 +158,7 @@
     <t>99,32%</t>
   </si>
   <si>
-    <t>98,11%</t>
+    <t>98,01%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -170,1015 +170,1015 @@
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>7,51%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>92,49%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B56F204-5FB8-458B-A8FB-1739B21F6F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C961902B-FA1B-4201-81CF-7F2961DA9856}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2340,7 +2340,7 @@
         <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2349,13 +2349,13 @@
         <v>9147</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -2367,10 +2367,10 @@
         <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2385,13 @@
         <v>512795</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>285</v>
@@ -2400,13 +2400,13 @@
         <v>294969</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>825</v>
@@ -2415,13 +2415,13 @@
         <v>807764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2489,13 @@
         <v>51489</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2504,13 +2504,13 @@
         <v>13239</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -2519,13 +2519,13 @@
         <v>64728</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2540,13 @@
         <v>1829415</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>862</v>
@@ -2555,13 +2555,13 @@
         <v>881343</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>2658</v>
@@ -2570,13 +2570,13 @@
         <v>2710758</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,7 +2632,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AA3E45-D886-4A33-9E71-823E3014C0A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E52670-61EC-44FD-92B1-11EFC80C74FE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2670,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2777,13 +2777,13 @@
         <v>3828</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2792,13 +2792,13 @@
         <v>1004</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2807,13 +2807,13 @@
         <v>4832</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2828,13 @@
         <v>60828</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -2843,10 +2843,10 @@
         <v>28103</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2858,13 +2858,13 @@
         <v>88930</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2932,13 @@
         <v>24078</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2947,13 +2947,13 @@
         <v>1886</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -2962,13 +2962,13 @@
         <v>25964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2983,13 @@
         <v>338533</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>136</v>
@@ -2998,10 +2998,10 @@
         <v>144420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3013,13 +3013,13 @@
         <v>482954</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3087,13 @@
         <v>29241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3102,13 +3102,13 @@
         <v>5016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -3117,13 +3117,13 @@
         <v>34258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3138,13 @@
         <v>563116</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>267</v>
@@ -3153,13 +3153,13 @@
         <v>291444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>789</v>
@@ -3168,13 +3168,13 @@
         <v>854560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3242,13 @@
         <v>38274</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3257,13 +3257,13 @@
         <v>3979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3272,13 +3272,13 @@
         <v>42253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3293,13 @@
         <v>422340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -3308,13 +3308,13 @@
         <v>203725</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>565</v>
@@ -3323,13 +3323,13 @@
         <v>626065</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3397,13 @@
         <v>42221</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3412,13 +3412,13 @@
         <v>10820</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -3427,13 +3427,13 @@
         <v>53041</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3448,13 @@
         <v>518160</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>340</v>
@@ -3463,13 +3463,13 @@
         <v>360411</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>843</v>
@@ -3478,13 +3478,13 @@
         <v>878571</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3552,13 @@
         <v>137642</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3567,13 +3567,13 @@
         <v>22706</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -3582,13 +3582,13 @@
         <v>160348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3603,13 @@
         <v>1902977</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>945</v>
@@ -3618,13 +3618,13 @@
         <v>1028102</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>2737</v>
@@ -3633,13 +3633,13 @@
         <v>2931080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,7 +3695,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +3716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A4318C-EA49-41B5-A589-8F70C2FD49B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E43697-D764-45AB-B95D-EE785EC16311}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3733,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3840,13 +3840,13 @@
         <v>3160</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3855,13 +3855,13 @@
         <v>1778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3870,13 +3870,13 @@
         <v>4937</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3891,13 @@
         <v>82056</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -3906,10 +3906,10 @@
         <v>33584</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3921,13 +3921,13 @@
         <v>115640</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +3995,13 @@
         <v>11216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4010,13 +4010,13 @@
         <v>2777</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4025,13 +4025,13 @@
         <v>13993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4046,13 @@
         <v>333298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>148</v>
@@ -4061,13 +4061,13 @@
         <v>144734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>466</v>
@@ -4076,13 +4076,13 @@
         <v>478033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4150,13 @@
         <v>31947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4165,13 +4165,13 @@
         <v>7643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -4180,13 +4180,13 @@
         <v>39590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4201,13 @@
         <v>540476</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>299</v>
@@ -4216,13 +4216,13 @@
         <v>314620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>801</v>
@@ -4231,13 +4231,13 @@
         <v>855096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4305,13 @@
         <v>20507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4320,13 +4320,13 @@
         <v>5387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4335,13 +4335,13 @@
         <v>25894</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4356,13 @@
         <v>405290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -4371,28 +4371,28 @@
         <v>226813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
       </c>
       <c r="N14" s="7">
-        <v>632103</v>
+        <v>632102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,7 +4434,7 @@
         <v>606</v>
       </c>
       <c r="N15" s="7">
-        <v>657997</v>
+        <v>657996</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -4460,13 +4460,13 @@
         <v>38340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -4475,13 +4475,13 @@
         <v>19716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4490,13 +4490,13 @@
         <v>58056</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4511,13 @@
         <v>533946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>361</v>
@@ -4526,13 +4526,13 @@
         <v>389256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>891</v>
@@ -4541,13 +4541,13 @@
         <v>923202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4615,13 @@
         <v>105170</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4630,13 +4630,13 @@
         <v>37300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>60</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -4645,13 +4645,13 @@
         <v>142471</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4666,13 @@
         <v>1895066</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>1059</v>
@@ -4681,13 +4681,13 @@
         <v>1109007</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="M20" s="7">
         <v>2857</v>
@@ -4696,13 +4696,13 @@
         <v>3004073</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,7 +4758,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4779,7 +4779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FFC0DC-64B4-4639-8FED-920086CEC236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DBA2B9-72F9-4347-AB24-56B8CF68E436}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4796,7 +4796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4903,13 +4903,13 @@
         <v>1352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4933,13 +4933,13 @@
         <v>1352</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,10 +4954,10 @@
         <v>45388</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4972,7 +4972,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4984,10 +4984,10 @@
         <v>72652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5058,13 +5058,13 @@
         <v>6598</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5073,13 +5073,13 @@
         <v>2719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>319</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5088,13 +5088,13 @@
         <v>9317</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5109,13 @@
         <v>282333</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>203</v>
@@ -5124,13 +5124,13 @@
         <v>138309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>325</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>497</v>
@@ -5139,13 +5139,13 @@
         <v>420642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5213,13 @@
         <v>27894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5228,13 +5228,13 @@
         <v>11022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>95</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -5243,13 +5243,13 @@
         <v>38916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5264,13 @@
         <v>459255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>275</v>
@@ -5279,13 +5279,13 @@
         <v>207544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>692</v>
@@ -5294,13 +5294,13 @@
         <v>666799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5368,13 @@
         <v>21463</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5383,13 +5383,13 @@
         <v>9578</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5398,13 +5398,13 @@
         <v>31042</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>348</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5419,13 @@
         <v>312773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>238</v>
@@ -5434,13 +5434,13 @@
         <v>287198</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -5449,13 +5449,13 @@
         <v>599970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5523,13 @@
         <v>41463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5538,13 +5538,13 @@
         <v>3912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -5553,13 +5553,13 @@
         <v>45375</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5574,13 @@
         <v>419189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -5589,13 +5589,13 @@
         <v>308544</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>853</v>
@@ -5681,10 +5681,10 @@
         <v>368</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -5693,13 +5693,13 @@
         <v>27231</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -5708,13 +5708,13 @@
         <v>126001</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>373</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,7 +5726,7 @@
         <v>1487</v>
       </c>
       <c r="D20" s="7">
-        <v>1518937</v>
+        <v>1518938</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>374</v>
@@ -5735,7 +5735,7 @@
         <v>375</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="H20" s="7">
         <v>1170</v>
@@ -5744,13 +5744,13 @@
         <v>968860</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M20" s="7">
         <v>2657</v>
@@ -5759,13 +5759,13 @@
         <v>2487797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>379</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,7 +5777,7 @@
         <v>1587</v>
       </c>
       <c r="D21" s="7">
-        <v>1617707</v>
+        <v>1617708</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E9B438C-AD5E-45B3-9C8F-B1CC837ED4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F42F0274-2CFD-4982-9265-715475154149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92040AE5-6105-4418-A70A-31C0EEE91AEC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{101EBF37-7548-4722-9626-C600565980AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="329">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -68,186 +68,159 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
     <t>94,42%</t>
   </si>
   <si>
@@ -365,820 +338,694 @@
     <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
   </si>
   <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
     <t>5,92%</t>
   </si>
   <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
     <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1437,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C961902B-FA1B-4201-81CF-7F2961DA9856}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C047F8-0A67-4EBE-B402-93202841DCBF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1708,10 +1555,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>1058</v>
+        <v>4606</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1729,79 +1576,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1058</v>
+        <v>4606</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>65</v>
+        <v>425</v>
       </c>
       <c r="D5" s="7">
-        <v>71023</v>
+        <v>434713</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I5" s="7">
-        <v>29283</v>
+        <v>180606</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>97</v>
+        <v>608</v>
       </c>
       <c r="N5" s="7">
-        <v>100307</v>
+        <v>615319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,153 +1657,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>66</v>
+        <v>429</v>
       </c>
       <c r="D6" s="7">
-        <v>72081</v>
+        <v>439319</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I6" s="7">
-        <v>29283</v>
+        <v>180606</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>98</v>
+        <v>612</v>
       </c>
       <c r="N6" s="7">
-        <v>101365</v>
+        <v>619925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>3548</v>
+        <v>16564</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>3548</v>
+        <v>18736</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>360</v>
+        <v>527</v>
       </c>
       <c r="D8" s="7">
-        <v>363690</v>
+        <v>565335</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="I8" s="7">
-        <v>151323</v>
+        <v>277339</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>511</v>
+        <v>788</v>
       </c>
       <c r="N8" s="7">
-        <v>515012</v>
+        <v>842673</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,153 +1812,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>543</v>
       </c>
       <c r="D9" s="7">
-        <v>367238</v>
+        <v>581899</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="I9" s="7">
-        <v>151323</v>
+        <v>279511</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>514</v>
+        <v>806</v>
       </c>
       <c r="N9" s="7">
-        <v>518560</v>
+        <v>861409</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>16564</v>
+        <v>14466</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2172</v>
+        <v>1919</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>18736</v>
+        <v>16385</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>527</v>
+        <v>304</v>
       </c>
       <c r="D11" s="7">
-        <v>565335</v>
+        <v>316571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c r="I11" s="7">
-        <v>277339</v>
+        <v>128430</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>788</v>
+        <v>437</v>
       </c>
       <c r="N11" s="7">
-        <v>842673</v>
+        <v>445001</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,153 +1967,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>543</v>
+        <v>318</v>
       </c>
       <c r="D12" s="7">
-        <v>581899</v>
+        <v>331037</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="I12" s="7">
-        <v>279511</v>
+        <v>130349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>806</v>
+        <v>453</v>
       </c>
       <c r="N12" s="7">
-        <v>861409</v>
+        <v>461386</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>14466</v>
+        <v>15854</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>1919</v>
+        <v>9147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>16385</v>
+        <v>25001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>304</v>
+        <v>540</v>
       </c>
       <c r="D14" s="7">
-        <v>316571</v>
+        <v>512795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="I14" s="7">
-        <v>128430</v>
+        <v>294969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>437</v>
+        <v>825</v>
       </c>
       <c r="N14" s="7">
-        <v>445001</v>
+        <v>807764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,153 +2122,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>318</v>
+        <v>556</v>
       </c>
       <c r="D15" s="7">
-        <v>331037</v>
+        <v>528649</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="I15" s="7">
-        <v>130349</v>
+        <v>304116</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>453</v>
+        <v>849</v>
       </c>
       <c r="N15" s="7">
-        <v>461386</v>
+        <v>832765</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>15854</v>
+        <v>51489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>9147</v>
+        <v>13239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N16" s="7">
-        <v>25001</v>
+        <v>64728</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>540</v>
+        <v>1796</v>
       </c>
       <c r="D17" s="7">
-        <v>512795</v>
+        <v>1829415</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>285</v>
+        <v>862</v>
       </c>
       <c r="I17" s="7">
-        <v>294969</v>
+        <v>881342</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
-        <v>825</v>
+        <v>2658</v>
       </c>
       <c r="N17" s="7">
-        <v>807764</v>
+        <v>2710758</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,217 +2277,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>556</v>
+        <v>1846</v>
       </c>
       <c r="D18" s="7">
-        <v>528649</v>
+        <v>1880904</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>293</v>
+        <v>874</v>
       </c>
       <c r="I18" s="7">
-        <v>304116</v>
+        <v>894581</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>849</v>
+        <v>2720</v>
       </c>
       <c r="N18" s="7">
-        <v>832765</v>
+        <v>2775486</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>50</v>
-      </c>
-      <c r="D19" s="7">
-        <v>51489</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13239</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="7">
-        <v>62</v>
-      </c>
-      <c r="N19" s="7">
-        <v>64728</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1796</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1829415</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="7">
-        <v>862</v>
-      </c>
-      <c r="I20" s="7">
-        <v>881343</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2658</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2710758</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1846</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1880904</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>874</v>
-      </c>
-      <c r="I21" s="7">
-        <v>894582</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2720</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2775486</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2653,8 +2344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E52670-61EC-44FD-92B1-11EFC80C74FE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1E915-4A8F-4E83-8A06-27DA2B54A71A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2670,7 +2361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2771,100 +2462,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>3828</v>
+        <v>27906</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1004</v>
+        <v>2890</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>4832</v>
+        <v>30796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="D5" s="7">
-        <v>60828</v>
+        <v>399361</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="I5" s="7">
-        <v>28103</v>
+        <v>172523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
-        <v>89</v>
+        <v>540</v>
       </c>
       <c r="N5" s="7">
-        <v>88930</v>
+        <v>571884</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,153 +2564,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>409</v>
       </c>
       <c r="D6" s="7">
-        <v>64656</v>
+        <v>427267</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>29107</v>
+        <v>175413</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>95</v>
+        <v>572</v>
       </c>
       <c r="N6" s="7">
-        <v>93762</v>
+        <v>602680</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>24078</v>
+        <v>29241</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1886</v>
+        <v>5016</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>25964</v>
+        <v>34258</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>315</v>
+        <v>522</v>
       </c>
       <c r="D8" s="7">
-        <v>338533</v>
+        <v>563116</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="7">
+        <v>267</v>
+      </c>
+      <c r="I8" s="7">
+        <v>291444</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="7">
+        <v>789</v>
+      </c>
+      <c r="N8" s="7">
+        <v>854560</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="7">
-        <v>136</v>
-      </c>
-      <c r="I8" s="7">
-        <v>144420</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="7">
-        <v>451</v>
-      </c>
-      <c r="N8" s="7">
-        <v>482954</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,153 +2719,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>339</v>
+        <v>547</v>
       </c>
       <c r="D9" s="7">
-        <v>362611</v>
+        <v>592357</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="I9" s="7">
-        <v>146306</v>
+        <v>296460</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>477</v>
+        <v>818</v>
       </c>
       <c r="N9" s="7">
-        <v>508918</v>
+        <v>888818</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>29241</v>
+        <v>38274</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>5016</v>
+        <v>3979</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="7">
+        <v>38</v>
+      </c>
+      <c r="N10" s="7">
+        <v>42253</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M10" s="7">
-        <v>29</v>
-      </c>
-      <c r="N10" s="7">
-        <v>34258</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>522</v>
+        <v>387</v>
       </c>
       <c r="D11" s="7">
-        <v>563116</v>
+        <v>422341</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="7">
+        <v>178</v>
+      </c>
+      <c r="I11" s="7">
+        <v>203725</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>565</v>
+      </c>
+      <c r="N11" s="7">
+        <v>626065</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="7">
-        <v>267</v>
-      </c>
-      <c r="I11" s="7">
-        <v>291444</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M11" s="7">
-        <v>789</v>
-      </c>
-      <c r="N11" s="7">
-        <v>854560</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,153 +2874,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>547</v>
+        <v>421</v>
       </c>
       <c r="D12" s="7">
-        <v>592357</v>
+        <v>460615</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="I12" s="7">
-        <v>296460</v>
+        <v>207704</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>818</v>
+        <v>603</v>
       </c>
       <c r="N12" s="7">
-        <v>888818</v>
+        <v>668318</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>38274</v>
+        <v>42221</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10820</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>48</v>
+      </c>
+      <c r="N13" s="7">
+        <v>53041</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3979</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M13" s="7">
-        <v>38</v>
-      </c>
-      <c r="N13" s="7">
-        <v>42253</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>387</v>
+        <v>503</v>
       </c>
       <c r="D14" s="7">
-        <v>422340</v>
+        <v>518160</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="7">
+        <v>340</v>
+      </c>
+      <c r="I14" s="7">
+        <v>360411</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>843</v>
+      </c>
+      <c r="N14" s="7">
+        <v>878571</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H14" s="7">
-        <v>178</v>
-      </c>
-      <c r="I14" s="7">
-        <v>203725</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M14" s="7">
-        <v>565</v>
-      </c>
-      <c r="N14" s="7">
-        <v>626065</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,153 +3029,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>421</v>
+        <v>542</v>
       </c>
       <c r="D15" s="7">
-        <v>460614</v>
+        <v>560381</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>182</v>
+        <v>349</v>
       </c>
       <c r="I15" s="7">
-        <v>207704</v>
+        <v>371231</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>603</v>
+        <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>668318</v>
+        <v>931612</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D16" s="7">
-        <v>42221</v>
+        <v>137642</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="7">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7">
+        <v>22706</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>147</v>
+      </c>
+      <c r="N16" s="7">
+        <v>160348</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10820</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" s="7">
-        <v>48</v>
-      </c>
-      <c r="N16" s="7">
-        <v>53041</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>503</v>
+        <v>1792</v>
       </c>
       <c r="D17" s="7">
-        <v>518160</v>
+        <v>1902977</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="7">
+        <v>945</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1028102</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2737</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2931079</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H17" s="7">
-        <v>340</v>
-      </c>
-      <c r="I17" s="7">
-        <v>360411</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M17" s="7">
-        <v>843</v>
-      </c>
-      <c r="N17" s="7">
-        <v>878571</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,217 +3184,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>542</v>
+        <v>1919</v>
       </c>
       <c r="D18" s="7">
-        <v>560381</v>
+        <v>2040619</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>349</v>
+        <v>965</v>
       </c>
       <c r="I18" s="7">
-        <v>371231</v>
+        <v>1050808</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>891</v>
+        <v>2884</v>
       </c>
       <c r="N18" s="7">
-        <v>931612</v>
+        <v>3091427</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>127</v>
-      </c>
-      <c r="D19" s="7">
-        <v>137642</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="7">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22706</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" s="7">
-        <v>147</v>
-      </c>
-      <c r="N19" s="7">
-        <v>160348</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1792</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1902977</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="7">
-        <v>945</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1028102</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2737</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2931080</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1919</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2040619</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>965</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1050808</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2884</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3091428</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>106</v>
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3716,8 +3251,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E43697-D764-45AB-B95D-EE785EC16311}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B92D7C-3830-4A96-8288-8C575264FA2F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3733,7 +3268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3834,100 +3369,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>3160</v>
+        <v>14376</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1778</v>
+        <v>4555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>4937</v>
+        <v>18931</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="D5" s="7">
-        <v>82056</v>
+        <v>415354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="I5" s="7">
-        <v>33584</v>
+        <v>178318</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>115</v>
+        <v>581</v>
       </c>
       <c r="N5" s="7">
-        <v>115640</v>
+        <v>593672</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,153 +3471,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="D6" s="7">
-        <v>85216</v>
+        <v>429730</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="I6" s="7">
-        <v>35362</v>
+        <v>182873</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="N6" s="7">
-        <v>120577</v>
+        <v>612603</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>11216</v>
+        <v>31947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>2777</v>
+        <v>7643</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>13993</v>
+        <v>39590</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>318</v>
+        <v>502</v>
       </c>
       <c r="D8" s="7">
-        <v>333298</v>
+        <v>540476</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="I8" s="7">
-        <v>144734</v>
+        <v>314620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
-        <v>466</v>
+        <v>801</v>
       </c>
       <c r="N8" s="7">
-        <v>478033</v>
+        <v>855096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,153 +3626,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>329</v>
+        <v>529</v>
       </c>
       <c r="D9" s="7">
-        <v>344514</v>
+        <v>572423</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>147511</v>
+        <v>322263</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>480</v>
+        <v>836</v>
       </c>
       <c r="N9" s="7">
-        <v>492026</v>
+        <v>894686</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>31947</v>
+        <v>20507</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>7643</v>
+        <v>5387</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>39590</v>
+        <v>25894</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>502</v>
+        <v>369</v>
       </c>
       <c r="D11" s="7">
-        <v>540476</v>
+        <v>405290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="I11" s="7">
-        <v>314620</v>
+        <v>226813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
-        <v>801</v>
+        <v>584</v>
       </c>
       <c r="N11" s="7">
-        <v>855096</v>
+        <v>632103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,153 +3781,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>529</v>
+        <v>386</v>
       </c>
       <c r="D12" s="7">
-        <v>572423</v>
+        <v>425797</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>307</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>322263</v>
+        <v>232200</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>836</v>
+        <v>606</v>
       </c>
       <c r="N12" s="7">
-        <v>894686</v>
+        <v>657997</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>20507</v>
+        <v>38340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>5387</v>
+        <v>19716</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N13" s="7">
-        <v>25894</v>
+        <v>58056</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>369</v>
+        <v>530</v>
       </c>
       <c r="D14" s="7">
-        <v>405290</v>
+        <v>533946</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
-        <v>215</v>
+        <v>361</v>
       </c>
       <c r="I14" s="7">
-        <v>226813</v>
+        <v>389256</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
-        <v>584</v>
+        <v>891</v>
       </c>
       <c r="N14" s="7">
-        <v>632102</v>
+        <v>923202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,153 +3936,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>386</v>
+        <v>566</v>
       </c>
       <c r="D15" s="7">
-        <v>425797</v>
+        <v>572286</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="I15" s="7">
-        <v>232200</v>
+        <v>408972</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>606</v>
+        <v>945</v>
       </c>
       <c r="N15" s="7">
-        <v>657996</v>
+        <v>981258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>94</v>
+      </c>
+      <c r="D16" s="7">
+        <v>105170</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="7">
         <v>36</v>
       </c>
-      <c r="D16" s="7">
-        <v>38340</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" s="7">
-        <v>18</v>
-      </c>
       <c r="I16" s="7">
-        <v>19716</v>
+        <v>37300</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M16" s="7">
+        <v>130</v>
+      </c>
+      <c r="N16" s="7">
+        <v>142471</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M16" s="7">
-        <v>54</v>
-      </c>
-      <c r="N16" s="7">
-        <v>58056</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>530</v>
+        <v>1798</v>
       </c>
       <c r="D17" s="7">
-        <v>533946</v>
+        <v>1895066</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
-        <v>361</v>
+        <v>1059</v>
       </c>
       <c r="I17" s="7">
-        <v>389256</v>
+        <v>1109007</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>58</v>
       </c>
       <c r="M17" s="7">
-        <v>891</v>
+        <v>2857</v>
       </c>
       <c r="N17" s="7">
-        <v>923202</v>
+        <v>3004072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,217 +4091,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>566</v>
+        <v>1892</v>
       </c>
       <c r="D18" s="7">
-        <v>572286</v>
+        <v>2000236</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>379</v>
+        <v>1095</v>
       </c>
       <c r="I18" s="7">
-        <v>408972</v>
+        <v>1146307</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>945</v>
+        <v>2987</v>
       </c>
       <c r="N18" s="7">
-        <v>981258</v>
+        <v>3146543</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>94</v>
-      </c>
-      <c r="D19" s="7">
-        <v>105170</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H19" s="7">
-        <v>36</v>
-      </c>
-      <c r="I19" s="7">
-        <v>37300</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M19" s="7">
-        <v>130</v>
-      </c>
-      <c r="N19" s="7">
-        <v>142471</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1798</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1895066</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1109007</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2857</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3004073</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1892</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2000236</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1095</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1146307</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2987</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3146544</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>106</v>
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4779,8 +4158,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DBA2B9-72F9-4347-AB24-56B8CF68E436}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C246F048-6D91-4EBA-8E68-130F388CF4A2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4796,7 +4175,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4897,100 +4276,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>1352</v>
+        <v>7636</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2581</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="7">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
       <c r="N4" s="7">
-        <v>1352</v>
+        <v>10217</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="D5" s="7">
-        <v>45388</v>
+        <v>325931</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="I5" s="7">
-        <v>27264</v>
+        <v>157516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="M5" s="7">
-        <v>96</v>
+        <v>593</v>
       </c>
       <c r="N5" s="7">
-        <v>72652</v>
+        <v>483448</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,153 +4378,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>357</v>
       </c>
       <c r="D6" s="7">
-        <v>46740</v>
+        <v>333567</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="I6" s="7">
-        <v>27264</v>
+        <v>160097</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>98</v>
+        <v>607</v>
       </c>
       <c r="N6" s="7">
-        <v>74004</v>
+        <v>493665</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>6598</v>
+        <v>27337</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>2719</v>
+        <v>9966</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>9317</v>
+        <v>37303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>294</v>
+        <v>417</v>
       </c>
       <c r="D8" s="7">
-        <v>282333</v>
+        <v>449419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="I8" s="7">
-        <v>138309</v>
+        <v>190916</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="M8" s="7">
-        <v>497</v>
+        <v>692</v>
       </c>
       <c r="N8" s="7">
-        <v>420642</v>
+        <v>640335</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,153 +4533,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>302</v>
+        <v>443</v>
       </c>
       <c r="D9" s="7">
-        <v>288931</v>
+        <v>476756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="I9" s="7">
-        <v>141028</v>
+        <v>200882</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>509</v>
+        <v>731</v>
       </c>
       <c r="N9" s="7">
-        <v>429959</v>
+        <v>677638</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>27894</v>
+        <v>20523</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>11022</v>
+        <v>8374</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="M10" s="7">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>38916</v>
+        <v>28897</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>417</v>
+        <v>281</v>
       </c>
       <c r="D11" s="7">
-        <v>459255</v>
+        <v>304825</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="H11" s="7">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="I11" s="7">
-        <v>207544</v>
+        <v>367723</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
-        <v>692</v>
+        <v>519</v>
       </c>
       <c r="N11" s="7">
-        <v>666799</v>
+        <v>672548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,153 +4688,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>443</v>
+        <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>487149</v>
+        <v>325348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>218566</v>
+        <v>376097</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>731</v>
+        <v>551</v>
       </c>
       <c r="N12" s="7">
-        <v>705715</v>
+        <v>701445</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>21463</v>
+        <v>42240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>9578</v>
+        <v>3566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N13" s="7">
-        <v>31042</v>
+        <v>45805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>281</v>
+        <v>442</v>
       </c>
       <c r="D14" s="7">
-        <v>312773</v>
+        <v>401460</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
-        <v>238</v>
+        <v>411</v>
       </c>
       <c r="I14" s="7">
-        <v>287198</v>
+        <v>286016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>111</v>
       </c>
       <c r="M14" s="7">
-        <v>519</v>
+        <v>853</v>
       </c>
       <c r="N14" s="7">
-        <v>599970</v>
+        <v>687476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,153 +4843,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D15" s="7">
-        <v>334236</v>
+        <v>443700</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>248</v>
+        <v>418</v>
       </c>
       <c r="I15" s="7">
-        <v>296776</v>
+        <v>289582</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>551</v>
+        <v>902</v>
       </c>
       <c r="N15" s="7">
-        <v>631012</v>
+        <v>733281</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D16" s="7">
-        <v>41463</v>
+        <v>97735</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>3912</v>
+        <v>24487</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="M16" s="7">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="N16" s="7">
-        <v>45375</v>
+        <v>122222</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>442</v>
+        <v>1487</v>
       </c>
       <c r="D17" s="7">
-        <v>419189</v>
+        <v>1481636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7">
-        <v>411</v>
+        <v>1170</v>
       </c>
       <c r="I17" s="7">
-        <v>308544</v>
+        <v>1002172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>58</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
-        <v>853</v>
+        <v>2657</v>
       </c>
       <c r="N17" s="7">
-        <v>727733</v>
+        <v>2483807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,217 +4998,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>484</v>
+        <v>1587</v>
       </c>
       <c r="D18" s="7">
-        <v>460652</v>
+        <v>1579371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>418</v>
+        <v>1204</v>
       </c>
       <c r="I18" s="7">
-        <v>312456</v>
+        <v>1026659</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>902</v>
+        <v>2791</v>
       </c>
       <c r="N18" s="7">
-        <v>773108</v>
+        <v>2606029</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>100</v>
-      </c>
-      <c r="D19" s="7">
-        <v>98770</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H19" s="7">
-        <v>34</v>
-      </c>
-      <c r="I19" s="7">
-        <v>27231</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="M19" s="7">
-        <v>134</v>
-      </c>
-      <c r="N19" s="7">
-        <v>126001</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1487</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1518938</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1170</v>
-      </c>
-      <c r="I20" s="7">
-        <v>968860</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2657</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2487797</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1587</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1617708</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1204</v>
-      </c>
-      <c r="I21" s="7">
-        <v>996091</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2791</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2613798</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>106</v>
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
